--- a/VT_REG_PRI_V01.xlsx
+++ b/VT_REG_PRI_V01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Migrating Task\Training material_migrated\DemoS_001\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Veda\Exercise1\Demo_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7AF3CC89-B359-47D1-93BC-AF0151A223F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0420D1DE-34B4-42CC-8F33-AEE8A24C1CB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="15375" windowHeight="7875" tabRatio="901" activeTab="3"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11460" tabRatio="901" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EnergyBalance" sheetId="133" r:id="rId1"/>
@@ -25,12 +25,17 @@
   <definedNames>
     <definedName name="FID_1">[1]AGR_Fuels!$A$2</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -38,12 +43,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="C19" authorId="0" shapeId="0">
+    <comment ref="C19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -61,14 +66,14 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Gary Goldstein</author>
     <author>Amit Kanudia</author>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="K3" authorId="0" shapeId="0">
+    <comment ref="K3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -182,7 +187,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P3" authorId="1" shapeId="0">
+    <comment ref="P3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -208,7 +213,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q3" authorId="2" shapeId="0">
+    <comment ref="Q3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -281,7 +286,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R3" authorId="2" shapeId="0">
+    <comment ref="R3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -334,7 +339,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S3" authorId="2" shapeId="0">
+    <comment ref="S3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
       <text>
         <r>
           <rPr>
@@ -367,7 +372,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I8" authorId="2" shapeId="0">
+    <comment ref="I8" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
       <text>
         <r>
           <rPr>
@@ -414,7 +419,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q8" authorId="2" shapeId="0">
+    <comment ref="Q8" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
       <text>
         <r>
           <rPr>
@@ -507,7 +512,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R8" authorId="1" shapeId="0">
+    <comment ref="R8" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000008000000}">
       <text>
         <r>
           <rPr>
@@ -532,7 +537,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S8" authorId="2" shapeId="0">
+    <comment ref="S8" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000009000000}">
       <text>
         <r>
           <rPr>
@@ -595,7 +600,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K9" authorId="2" shapeId="0">
+    <comment ref="K9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -843,14 +848,14 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Gary Goldstein</author>
     <author>Amit Kanudia</author>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="L3" authorId="0" shapeId="0">
+    <comment ref="L3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -964,7 +969,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q3" authorId="1" shapeId="0">
+    <comment ref="Q3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -990,7 +995,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R3" authorId="2" shapeId="0">
+    <comment ref="R3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
       <text>
         <r>
           <rPr>
@@ -1063,7 +1068,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S3" authorId="2" shapeId="0">
+    <comment ref="S3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
       <text>
         <r>
           <rPr>
@@ -1116,7 +1121,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T3" authorId="2" shapeId="0">
+    <comment ref="T3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000005000000}">
       <text>
         <r>
           <rPr>
@@ -1149,7 +1154,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R9" authorId="2" shapeId="0">
+    <comment ref="R9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000006000000}">
       <text>
         <r>
           <rPr>
@@ -1242,7 +1247,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S9" authorId="1" shapeId="0">
+    <comment ref="S9" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0300-000007000000}">
       <text>
         <r>
           <rPr>
@@ -1267,7 +1272,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T9" authorId="2" shapeId="0">
+    <comment ref="T9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000008000000}">
       <text>
         <r>
           <rPr>
@@ -1330,7 +1335,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L10" authorId="2" shapeId="0">
+    <comment ref="L10" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000009000000}">
       <text>
         <r>
           <rPr>
@@ -2042,13 +2047,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="171" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="187" formatCode="General_)"/>
-    <numFmt numFmtId="195" formatCode="\Te\x\t"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="General_)"/>
+    <numFmt numFmtId="165" formatCode="\Te\x\t"/>
   </numFmts>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2078,32 +2083,6 @@
       <sz val="10"/>
       <color indexed="12"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
     <font>
@@ -2226,7 +2205,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2315,6 +2294,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2511,28 +2496,28 @@
   </borders>
   <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2541,26 +2526,21 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2569,192 +2549,178 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="25" fillId="0" borderId="6" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="21" fillId="0" borderId="6" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="25" fillId="0" borderId="7" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="25" fillId="0" borderId="0" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="9" fontId="21" fillId="0" borderId="7" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="3" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="9" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="3" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="3" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="0" fillId="14" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="3" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="3" fillId="14" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="20" fillId="8" borderId="0" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="18" fillId="6" borderId="4" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="14" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="3" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="3" fillId="14" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="16" fillId="8" borderId="0" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="14" fillId="6" borderId="4" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="20" fillId="8" borderId="4" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="18" fillId="6" borderId="9" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="16" fillId="8" borderId="4" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="14" fillId="6" borderId="9" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="187" fontId="18" fillId="6" borderId="5" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="6" borderId="5" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="18" fillId="6" borderId="13" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="14" fillId="6" borderId="13" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="18" fillId="6" borderId="14" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="14" fillId="6" borderId="14" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="187" fontId="13" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="13" fillId="13" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="13" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="13" fillId="14" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="14" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="13" fillId="14" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="14" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="13" fillId="14" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="14" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="8" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="4" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="4" fillId="15" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="11" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="11" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="11" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="11" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="20" fillId="8" borderId="1" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="18" fillId="6" borderId="15" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="14" fillId="6" borderId="15" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="187" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="13" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="4" fillId="13" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="195" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="195" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="195" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="195" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="195" fontId="23" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="19" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="195" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="195" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="195" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="195" fontId="23" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="19" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="195" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="195" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="16" fillId="17" borderId="1" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="16" fillId="17" borderId="0" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="21">
     <cellStyle name="20% - Accent5" xfId="1" builtinId="46"/>
     <cellStyle name="60% - Accent2" xfId="2" builtinId="36"/>
     <cellStyle name="Accent2" xfId="3" builtinId="33"/>
     <cellStyle name="Calculation" xfId="4" builtinId="22"/>
-    <cellStyle name="Comma 2" xfId="5"/>
+    <cellStyle name="Comma 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Good" xfId="6" builtinId="26"/>
     <cellStyle name="Input" xfId="7" builtinId="20"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="9"/>
-    <cellStyle name="Normal 2" xfId="10"/>
-    <cellStyle name="Normal 4" xfId="11"/>
-    <cellStyle name="Normal 4 2" xfId="12"/>
-    <cellStyle name="Normal 8" xfId="13"/>
-    <cellStyle name="Normal 9 2" xfId="14"/>
-    <cellStyle name="Normale_B2020" xfId="15"/>
+    <cellStyle name="Normal 10" xfId="9" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Normal 2" xfId="10" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Normal 4" xfId="11" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Normal 4 2" xfId="12" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Normal 8" xfId="13" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Normal 9 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Normale_B2020" xfId="15" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
     <cellStyle name="Percent" xfId="16" builtinId="5"/>
-    <cellStyle name="Percent 2" xfId="17"/>
-    <cellStyle name="Percent 3" xfId="18"/>
-    <cellStyle name="Percent 4" xfId="19"/>
-    <cellStyle name="Standard_Sce_D_Extraction" xfId="20"/>
+    <cellStyle name="Percent 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Percent 3" xfId="18" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Percent 4" xfId="19" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Standard_Sce_D_Extraction" xfId="20" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -3774,7 +3740,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="IEA Data"/>
@@ -4255,33 +4221,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:S39"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13.28515625" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" customWidth="1"/>
-    <col min="7" max="11" width="13.28515625" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" customWidth="1"/>
-    <col min="13" max="13" width="10.85546875" customWidth="1"/>
-    <col min="14" max="14" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.40625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.1328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.26953125" customWidth="1"/>
+    <col min="6" max="6" width="15.40625" customWidth="1"/>
+    <col min="7" max="11" width="13.26953125" customWidth="1"/>
+    <col min="12" max="12" width="10.54296875" customWidth="1"/>
+    <col min="13" max="13" width="10.86328125" customWidth="1"/>
+    <col min="14" max="14" width="15.54296875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.26953125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="P1" s="22" t="s">
+    <row r="1" spans="2:19" x14ac:dyDescent="0.6">
+      <c r="P1" s="15" t="s">
         <v>111</v>
       </c>
       <c r="Q1" s="1" t="s">
@@ -4294,999 +4260,948 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C2" s="7"/>
-      <c r="D2" s="40" t="s">
+    <row r="2" spans="2:19" ht="16" x14ac:dyDescent="0.8">
+      <c r="D2" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="40" t="s">
+      <c r="E2" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="40" t="s">
+      <c r="F2" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="G2" s="40" t="s">
+      <c r="G2" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="40" t="s">
+      <c r="H2" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="I2" s="40" t="s">
+      <c r="I2" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="J2" s="40" t="s">
+      <c r="J2" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="K2" s="40" t="s">
+      <c r="K2" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="L2" s="31"/>
-      <c r="M2" s="6"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="36" t="s">
+      <c r="L2" s="23"/>
+      <c r="Q2" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="R2" s="14" t="s">
+      <c r="R2" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="S2" s="14" t="s">
+      <c r="S2" s="9" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="C3" s="9"/>
-      <c r="D3" s="41" t="s">
+    <row r="3" spans="2:19" ht="26" x14ac:dyDescent="0.6">
+      <c r="C3" s="6"/>
+      <c r="D3" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="E3" s="41" t="s">
+      <c r="E3" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="41" t="s">
+      <c r="F3" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="G3" s="41" t="s">
+      <c r="G3" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="H3" s="41" t="s">
+      <c r="H3" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="I3" s="41" t="s">
+      <c r="I3" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="J3" s="41" t="s">
+      <c r="J3" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="K3" s="41" t="s">
+      <c r="K3" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="L3" s="34" t="s">
+      <c r="L3" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="M3" s="6"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="C4" s="89" t="s">
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.6">
+      <c r="C4" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="6"/>
-    </row>
-    <row r="5" spans="1:19" ht="15" x14ac:dyDescent="0.25">
-      <c r="B5" s="42" t="s">
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+    </row>
+    <row r="5" spans="2:19" ht="14.75" x14ac:dyDescent="0.75">
+      <c r="B5" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="90" t="s">
+      <c r="C5" s="76" t="s">
         <v>63</v>
       </c>
-      <c r="D5" s="87">
-        <v>8098.3580000000002</v>
-      </c>
-      <c r="E5" s="37">
+      <c r="D5" s="94">
+        <v>1234</v>
+      </c>
+      <c r="E5" s="29">
         <v>7899.4970000000003</v>
       </c>
-      <c r="F5" s="37">
+      <c r="F5" s="29">
         <v>5378.5119999999997</v>
       </c>
-      <c r="G5" s="37">
+      <c r="G5" s="29">
         <v>10775.148999999999</v>
       </c>
-      <c r="H5" s="37">
+      <c r="H5" s="29">
         <v>5026.6000000000004</v>
       </c>
-      <c r="I5" s="37">
+      <c r="I5" s="29">
         <v>0</v>
       </c>
-      <c r="J5" s="37">
+      <c r="J5" s="29">
         <v>0</v>
       </c>
-      <c r="K5" s="37">
+      <c r="K5" s="29">
         <v>0</v>
       </c>
-      <c r="L5" s="38">
+      <c r="L5" s="30">
         <f>SUM(D5:K5)</f>
-        <v>37178.115999999995</v>
-      </c>
-      <c r="M5" s="6"/>
-      <c r="P5" s="10"/>
-    </row>
-    <row r="6" spans="1:19" ht="15" x14ac:dyDescent="0.25">
-      <c r="B6" s="42" t="s">
+        <v>30313.757999999994</v>
+      </c>
+      <c r="P5" s="7"/>
+    </row>
+    <row r="6" spans="2:19" ht="14.75" x14ac:dyDescent="0.75">
+      <c r="B6" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="90" t="s">
+      <c r="C6" s="76" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="51">
-        <v>6462.6710000000003</v>
-      </c>
-      <c r="E6" s="37">
+      <c r="D6" s="95">
+        <v>1234</v>
+      </c>
+      <c r="E6" s="29">
         <v>13291.728999999999</v>
       </c>
-      <c r="F6" s="37">
+      <c r="F6" s="29">
         <v>39959.980000000003</v>
       </c>
-      <c r="G6" s="37">
+      <c r="G6" s="29">
         <v>0</v>
       </c>
-      <c r="H6" s="37">
+      <c r="H6" s="29">
         <v>113.01900000000001</v>
       </c>
-      <c r="I6" s="37">
+      <c r="I6" s="29">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="J6" s="37">
+      <c r="J6" s="29">
         <v>0.153</v>
       </c>
-      <c r="K6" s="37">
+      <c r="K6" s="29">
         <v>1167.52</v>
       </c>
-      <c r="L6" s="38">
+      <c r="L6" s="30">
         <f>SUM(D6:K6)</f>
-        <v>60995.078999999998</v>
-      </c>
-      <c r="M6" s="6"/>
-    </row>
-    <row r="7" spans="1:19" ht="15" x14ac:dyDescent="0.25">
-      <c r="B7" s="42" t="s">
+        <v>55766.407999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" ht="14.75" x14ac:dyDescent="0.75">
+      <c r="B7" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="90" t="s">
+      <c r="C7" s="76" t="s">
         <v>67</v>
       </c>
-      <c r="D7" s="51">
-        <v>-1147.069</v>
-      </c>
-      <c r="E7" s="39">
+      <c r="D7" s="95">
+        <v>1234</v>
+      </c>
+      <c r="E7" s="29">
         <v>-2516.3310000000001</v>
       </c>
-      <c r="F7" s="39">
+      <c r="F7" s="29">
         <v>-14830.662</v>
       </c>
-      <c r="G7" s="39">
+      <c r="G7" s="29">
         <v>0</v>
       </c>
-      <c r="H7" s="39">
+      <c r="H7" s="29">
         <v>-72.403999999999996</v>
       </c>
-      <c r="I7" s="39">
+      <c r="I7" s="29">
         <v>0</v>
       </c>
-      <c r="J7" s="39">
+      <c r="J7" s="29">
         <v>-0.129</v>
       </c>
-      <c r="K7" s="39">
+      <c r="K7" s="29">
         <v>-1126.8040000000001</v>
       </c>
-      <c r="L7" s="38">
+      <c r="L7" s="30">
         <f>SUM(D7:K7)</f>
-        <v>-19693.399000000001</v>
-      </c>
-      <c r="M7" s="6"/>
-      <c r="P7" s="10"/>
-    </row>
-    <row r="8" spans="1:19" ht="15" x14ac:dyDescent="0.25">
-      <c r="B8" s="85" t="s">
+        <v>-17312.330000000002</v>
+      </c>
+      <c r="P7" s="7"/>
+    </row>
+    <row r="8" spans="2:19" ht="14.75" x14ac:dyDescent="0.75">
+      <c r="B8" s="72" t="s">
         <v>144</v>
       </c>
-      <c r="C8" s="55" t="s">
+      <c r="C8" s="46" t="s">
         <v>145</v>
       </c>
-      <c r="D8" s="53">
+      <c r="D8" s="44">
         <f t="shared" ref="D8:L8" si="0">SUM(D5:D7)</f>
-        <v>13413.960000000001</v>
-      </c>
-      <c r="E8" s="57">
+        <v>3702</v>
+      </c>
+      <c r="E8" s="48">
         <f t="shared" si="0"/>
         <v>18674.894999999997</v>
       </c>
-      <c r="F8" s="57">
+      <c r="F8" s="48">
         <f t="shared" si="0"/>
         <v>30507.830000000005</v>
       </c>
-      <c r="G8" s="57">
+      <c r="G8" s="48">
         <f t="shared" si="0"/>
         <v>10775.148999999999</v>
       </c>
-      <c r="H8" s="57">
+      <c r="H8" s="48">
         <f t="shared" si="0"/>
         <v>5067.2150000000001</v>
       </c>
-      <c r="I8" s="57">
+      <c r="I8" s="48">
         <f t="shared" si="0"/>
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="J8" s="57">
+      <c r="J8" s="48">
         <f t="shared" si="0"/>
         <v>2.3999999999999994E-2</v>
       </c>
-      <c r="K8" s="57">
+      <c r="K8" s="48">
         <f t="shared" si="0"/>
         <v>40.715999999999894</v>
       </c>
-      <c r="L8" s="58">
+      <c r="L8" s="49">
         <f t="shared" si="0"/>
-        <v>78479.795999999988</v>
-      </c>
-      <c r="M8" s="6"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B9" s="35"/>
-      <c r="C9" s="91" t="s">
+        <v>68767.835999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.6">
+      <c r="B9" s="27"/>
+      <c r="C9" s="77" t="s">
         <v>68</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="56"/>
-      <c r="M9" s="6"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B10" s="42" t="s">
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="47"/>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.6">
+      <c r="B10" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="59" t="s">
+      <c r="C10" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="43">
+      <c r="D10" s="34">
         <v>-57.637999999999998</v>
       </c>
-      <c r="E10" s="43">
+      <c r="E10" s="34">
         <v>-792.98</v>
       </c>
-      <c r="F10" s="43">
+      <c r="F10" s="34">
         <v>-1848.605</v>
       </c>
-      <c r="G10" s="43">
+      <c r="G10" s="34">
         <v>0</v>
       </c>
-      <c r="H10" s="43">
+      <c r="H10" s="34">
         <v>-4.2830000000000004</v>
       </c>
-      <c r="I10" s="43">
+      <c r="I10" s="34">
         <v>-1.52</v>
       </c>
-      <c r="J10" s="43">
+      <c r="J10" s="34">
         <v>0</v>
       </c>
-      <c r="K10" s="43">
+      <c r="K10" s="34">
         <v>0</v>
       </c>
-      <c r="L10" s="44">
+      <c r="L10" s="35">
         <f>SUM(D10:K10)</f>
         <v>-2705.0259999999998</v>
       </c>
-      <c r="M10" s="6"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B11" s="42" t="s">
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.6">
+      <c r="B11" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="60" t="s">
+      <c r="C11" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="D11" s="43">
+      <c r="D11" s="34">
         <v>-9598.1200000000008</v>
       </c>
-      <c r="E11" s="43">
+      <c r="E11" s="34">
         <v>-5635.5439999999999</v>
       </c>
-      <c r="F11" s="43">
+      <c r="F11" s="34">
         <v>-1224.6089999999999</v>
       </c>
-      <c r="G11" s="43">
+      <c r="G11" s="34">
         <v>-10775.148999999999</v>
       </c>
-      <c r="H11" s="43">
+      <c r="H11" s="34">
         <v>-1255.692</v>
       </c>
-      <c r="I11" s="43">
+      <c r="I11" s="34">
         <v>-32.948999999999998</v>
       </c>
-      <c r="J11" s="43">
+      <c r="J11" s="34">
         <v>1737.559</v>
       </c>
-      <c r="K11" s="43">
+      <c r="K11" s="34">
         <v>11581</v>
       </c>
-      <c r="L11" s="44">
+      <c r="L11" s="35">
         <f>SUM(D11:K11)</f>
         <v>-15203.503999999997</v>
       </c>
-      <c r="M11" s="6"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B12" s="42" t="s">
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.6">
+      <c r="B12" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="60" t="s">
+      <c r="C12" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="D12" s="43">
+      <c r="D12" s="34">
         <v>-161.39599999999999</v>
       </c>
-      <c r="E12" s="43">
+      <c r="E12" s="34">
         <v>-301.30099999999999</v>
       </c>
-      <c r="F12" s="43">
+      <c r="F12" s="34">
         <v>-49.649000000000001</v>
       </c>
-      <c r="G12" s="43">
+      <c r="G12" s="34">
         <v>0</v>
       </c>
-      <c r="H12" s="43">
+      <c r="H12" s="34">
         <v>-140.20699999999999</v>
       </c>
-      <c r="I12" s="43">
+      <c r="I12" s="34">
         <v>-1.569</v>
       </c>
-      <c r="J12" s="43">
+      <c r="J12" s="34">
         <v>658.74300000000005</v>
       </c>
-      <c r="K12" s="43">
+      <c r="K12" s="34">
         <v>0</v>
       </c>
-      <c r="L12" s="44">
+      <c r="L12" s="35">
         <f>SUM(D12:K12)</f>
         <v>4.6210000000000946</v>
       </c>
-      <c r="M12" s="6"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B13" s="42" t="s">
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.6">
+      <c r="B13" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="C13" s="60" t="s">
+      <c r="C13" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43">
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34">
         <v>-31736.460999999999</v>
       </c>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="43"/>
-      <c r="K13" s="43"/>
-      <c r="L13" s="44">
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="35">
         <f>SUM(D13:K13)</f>
         <v>-31736.460999999999</v>
       </c>
-      <c r="M13" s="6"/>
-    </row>
-    <row r="14" spans="1:19" ht="15" x14ac:dyDescent="0.25">
-      <c r="B14" s="35"/>
-      <c r="C14" s="55" t="s">
+    </row>
+    <row r="14" spans="2:19" ht="14.75" x14ac:dyDescent="0.75">
+      <c r="B14" s="27"/>
+      <c r="C14" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="D14" s="88">
+      <c r="D14" s="74">
         <f t="shared" ref="D14:L14" si="1">SUM(D10:D13)</f>
         <v>-9817.1540000000023</v>
       </c>
-      <c r="E14" s="57">
+      <c r="E14" s="48">
         <f t="shared" si="1"/>
         <v>-6729.8249999999998</v>
       </c>
-      <c r="F14" s="57">
+      <c r="F14" s="48">
         <f t="shared" si="1"/>
         <v>-34859.324000000001</v>
       </c>
-      <c r="G14" s="57">
+      <c r="G14" s="48">
         <f t="shared" si="1"/>
         <v>-10775.148999999999</v>
       </c>
-      <c r="H14" s="57">
+      <c r="H14" s="48">
         <f t="shared" si="1"/>
         <v>-1400.1819999999998</v>
       </c>
-      <c r="I14" s="57">
+      <c r="I14" s="48">
         <f t="shared" si="1"/>
         <v>-36.038000000000004</v>
       </c>
-      <c r="J14" s="57">
+      <c r="J14" s="48">
         <f t="shared" si="1"/>
         <v>2396.3020000000001</v>
       </c>
-      <c r="K14" s="57">
+      <c r="K14" s="48">
         <f t="shared" si="1"/>
         <v>11581</v>
       </c>
-      <c r="L14" s="58">
+      <c r="L14" s="49">
         <f t="shared" si="1"/>
         <v>-49640.369999999995</v>
       </c>
-      <c r="M14" s="6"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B15" s="35"/>
-      <c r="C15" s="91" t="s">
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.6">
+      <c r="B15" s="27"/>
+      <c r="C15" s="77" t="s">
         <v>77</v>
       </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="56"/>
-      <c r="M15" s="6"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A16" s="6"/>
-      <c r="B16" s="42" t="s">
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="47"/>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.6">
+      <c r="B16" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="C16" s="61" t="s">
+      <c r="C16" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="D16" s="46">
+      <c r="D16" s="37">
         <v>356.55500000000001</v>
       </c>
-      <c r="E16" s="46">
+      <c r="E16" s="37">
         <v>5159.7929999999997</v>
       </c>
-      <c r="F16" s="46">
+      <c r="F16" s="37">
         <v>2289.2930000000001</v>
       </c>
-      <c r="G16" s="46">
+      <c r="G16" s="37">
         <v>0</v>
       </c>
-      <c r="H16" s="46">
+      <c r="H16" s="37">
         <v>1293.9269999999999</v>
       </c>
-      <c r="I16" s="46">
+      <c r="I16" s="37">
         <v>0</v>
       </c>
-      <c r="J16" s="46">
+      <c r="J16" s="37">
         <v>865.48500000000001</v>
       </c>
-      <c r="K16" s="46">
+      <c r="K16" s="37">
         <v>2871.7420000000002</v>
       </c>
-      <c r="L16" s="49">
+      <c r="L16" s="40">
         <f t="shared" ref="L16:L23" si="2">SUM(D16:K16)</f>
         <v>12836.795</v>
       </c>
-      <c r="M16" s="6"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="6"/>
-      <c r="B17" s="42" t="s">
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.6">
+      <c r="B17" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="C17" s="62" t="s">
+      <c r="C17" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="D17" s="46">
+      <c r="D17" s="37">
         <v>56.924999999999997</v>
       </c>
-      <c r="E17" s="46">
+      <c r="E17" s="37">
         <v>1751.73</v>
       </c>
-      <c r="F17" s="46">
+      <c r="F17" s="37">
         <v>854.81</v>
       </c>
-      <c r="G17" s="46">
+      <c r="G17" s="37">
         <v>0</v>
       </c>
-      <c r="H17" s="46">
+      <c r="H17" s="37">
         <v>67.406000000000006</v>
       </c>
-      <c r="I17" s="46">
+      <c r="I17" s="37">
         <v>1.2170000000000001</v>
       </c>
-      <c r="J17" s="46">
+      <c r="J17" s="37">
         <v>254.64599999999999</v>
       </c>
-      <c r="K17" s="46">
+      <c r="K17" s="37">
         <v>2527.3910000000001</v>
       </c>
-      <c r="L17" s="49">
+      <c r="L17" s="40">
         <f t="shared" si="2"/>
         <v>5514.125</v>
       </c>
-      <c r="M17" s="6"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="6"/>
-      <c r="B18" s="42" t="s">
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.6">
+      <c r="B18" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="C18" s="62" t="s">
+      <c r="C18" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="D18" s="46">
+      <c r="D18" s="37">
         <v>1896.9860000000001</v>
       </c>
-      <c r="E18" s="46">
+      <c r="E18" s="37">
         <v>4437.1610000000001</v>
       </c>
-      <c r="F18" s="46">
+      <c r="F18" s="37">
         <v>2016.1110000000001</v>
       </c>
-      <c r="G18" s="46">
+      <c r="G18" s="37">
         <v>0</v>
       </c>
-      <c r="H18" s="46">
+      <c r="H18" s="37">
         <v>721.67100000000005</v>
       </c>
-      <c r="I18" s="46">
+      <c r="I18" s="37">
         <v>117.19199999999999</v>
       </c>
-      <c r="J18" s="46">
+      <c r="J18" s="37">
         <v>633.58299999999997</v>
       </c>
-      <c r="K18" s="46">
+      <c r="K18" s="37">
         <v>4088.444</v>
       </c>
-      <c r="L18" s="49">
+      <c r="L18" s="40">
         <f t="shared" si="2"/>
         <v>13911.147999999999</v>
       </c>
-      <c r="M18" s="6"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="6"/>
-      <c r="B19" s="42" t="s">
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.6">
+      <c r="B19" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="C19" s="62" t="s">
+      <c r="C19" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="D19" s="46">
+      <c r="D19" s="37">
         <v>44.1</v>
       </c>
-      <c r="E19" s="46">
+      <c r="E19" s="37">
         <v>201.20599999999999</v>
       </c>
-      <c r="F19" s="46">
+      <c r="F19" s="37">
         <v>797.37199999999996</v>
       </c>
-      <c r="G19" s="46">
+      <c r="G19" s="37">
         <v>0</v>
       </c>
-      <c r="H19" s="46">
+      <c r="H19" s="37">
         <v>63.085999999999999</v>
       </c>
-      <c r="I19" s="46">
+      <c r="I19" s="37">
         <v>1E-3</v>
       </c>
-      <c r="J19" s="46">
+      <c r="J19" s="37">
         <v>15.574</v>
       </c>
-      <c r="K19" s="46">
+      <c r="K19" s="37">
         <v>19.386000000000003</v>
       </c>
-      <c r="L19" s="49">
+      <c r="L19" s="40">
         <f t="shared" si="2"/>
         <v>1140.7249999999999</v>
       </c>
-      <c r="M19" s="6"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="6"/>
-      <c r="B20" s="42" t="s">
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.6">
+      <c r="B20" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="C20" s="62" t="s">
+      <c r="C20" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="D20" s="46">
+      <c r="D20" s="37">
         <v>0.55600000000000005</v>
       </c>
-      <c r="E20" s="46">
+      <c r="E20" s="37">
         <v>21.248999999999999</v>
       </c>
-      <c r="F20" s="46">
+      <c r="F20" s="37">
         <v>14851.249</v>
       </c>
-      <c r="G20" s="46">
+      <c r="G20" s="37">
         <v>0</v>
       </c>
-      <c r="H20" s="46">
+      <c r="H20" s="37">
         <v>130.685</v>
       </c>
-      <c r="I20" s="46">
+      <c r="I20" s="37">
         <v>0</v>
       </c>
-      <c r="J20" s="46">
+      <c r="J20" s="37">
         <v>0</v>
       </c>
-      <c r="K20" s="46">
+      <c r="K20" s="37">
         <v>265.97199999999998</v>
       </c>
-      <c r="L20" s="49">
+      <c r="L20" s="40">
         <f t="shared" si="2"/>
         <v>15269.710999999999</v>
       </c>
-      <c r="M20" s="6"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="6"/>
-      <c r="B21" s="42" t="s">
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.6">
+      <c r="B21" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="C21" s="63" t="s">
+      <c r="C21" s="54" t="s">
         <v>89</v>
       </c>
-      <c r="D21" s="47">
+      <c r="D21" s="38">
         <f>IF((SUM(D16:D20,D22:D23)-SUM(D10:D12))&gt;D8,0,(D8-SUM(D16:D20,D22:D23)+SUM(D10:D12)))</f>
-        <v>1189.2309999999979</v>
-      </c>
-      <c r="E21" s="47">
+        <v>0</v>
+      </c>
+      <c r="E21" s="38">
         <f>IF((SUM(E16:E20,E22:E23)-SUM(E10:E12))&gt;E8,0,(E8-SUM(E16:E20,E22:E23)+SUM(E10:E12)))</f>
         <v>0</v>
       </c>
-      <c r="F21" s="47">
+      <c r="F21" s="38">
         <v>392.53200000000402</v>
       </c>
-      <c r="G21" s="47">
+      <c r="G21" s="38">
         <f>IF((SUM(G16:G20,G22:G23)-SUM(G10:G12))&gt;G8,0,(G8-SUM(G16:G20,G22:G23)+SUM(G10:G12)))</f>
         <v>0</v>
       </c>
-      <c r="H21" s="47">
+      <c r="H21" s="38">
         <f>IF((SUM(H16:H20,H22:H23)-SUM(H10:H12))&gt;H8,0,(H8-SUM(H16:H20,H22:H23)+SUM(H10:H12)))</f>
         <v>1390.2580000000007</v>
       </c>
-      <c r="I21" s="47">
+      <c r="I21" s="38">
         <f>IF((SUM(I16:I20,I22:I23)-SUM(I10:I12))&gt;I8,0,(I8-SUM(I16:I20,I22:I23)+SUM(I10:I12)))</f>
         <v>0</v>
       </c>
-      <c r="J21" s="47">
+      <c r="J21" s="38">
         <f>IF((SUM(J16:J20,J22:J23)-SUM(J10:J12))&gt;J8,0,(J8-SUM(J16:J20,J22:J23)+SUM(J10:J12)))</f>
         <v>627.03800000000001</v>
       </c>
-      <c r="K21" s="47">
+      <c r="K21" s="38">
         <v>650</v>
       </c>
-      <c r="L21" s="50">
+      <c r="L21" s="41">
         <f t="shared" si="2"/>
-        <v>4249.0590000000029</v>
-      </c>
-      <c r="M21" s="6"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" s="6"/>
-      <c r="B22" s="42" t="s">
+        <v>3059.828000000005</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.6">
+      <c r="B22" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="C22" s="62" t="s">
+      <c r="C22" s="53" t="s">
         <v>90</v>
       </c>
-      <c r="D22" s="46">
+      <c r="D22" s="37">
         <v>52.453000000000003</v>
       </c>
-      <c r="E22" s="46">
+      <c r="E22" s="37">
         <v>633.82299999999998</v>
       </c>
-      <c r="F22" s="46">
+      <c r="F22" s="37">
         <v>4072.5079999999998</v>
       </c>
-      <c r="G22" s="48"/>
-      <c r="H22" s="46">
+      <c r="G22" s="39"/>
+      <c r="H22" s="37">
         <v>0</v>
       </c>
-      <c r="I22" s="46">
+      <c r="I22" s="37">
         <v>0</v>
       </c>
-      <c r="J22" s="46">
+      <c r="J22" s="37">
         <v>0</v>
       </c>
-      <c r="K22" s="46">
+      <c r="K22" s="37">
         <v>0</v>
       </c>
-      <c r="L22" s="49">
+      <c r="L22" s="40">
         <f t="shared" si="2"/>
         <v>4758.7839999999997</v>
       </c>
-      <c r="M22" s="6"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" s="6"/>
-      <c r="B23" s="42" t="s">
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.6">
+      <c r="B23" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="C23" s="62" t="s">
+      <c r="C23" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="D23" s="46">
+      <c r="D23" s="37">
         <v>0</v>
       </c>
-      <c r="E23" s="46">
+      <c r="E23" s="37">
         <v>0</v>
       </c>
-      <c r="F23" s="46">
+      <c r="F23" s="37">
         <v>2111.0920000000001</v>
       </c>
-      <c r="G23" s="48"/>
-      <c r="H23" s="46">
+      <c r="G23" s="39"/>
+      <c r="H23" s="37">
         <v>0</v>
       </c>
-      <c r="I23" s="46">
+      <c r="I23" s="37">
         <v>0</v>
       </c>
-      <c r="J23" s="46">
+      <c r="J23" s="37">
         <v>0</v>
       </c>
-      <c r="K23" s="46">
+      <c r="K23" s="37">
         <v>0</v>
       </c>
-      <c r="L23" s="49">
+      <c r="L23" s="40">
         <f t="shared" si="2"/>
         <v>2111.0920000000001</v>
       </c>
-      <c r="M23" s="6"/>
-    </row>
-    <row r="24" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="85" t="s">
+    </row>
+    <row r="24" spans="2:13" ht="14.75" x14ac:dyDescent="0.75">
+      <c r="B24" s="72" t="s">
         <v>107</v>
       </c>
-      <c r="C24" s="55" t="s">
+      <c r="C24" s="46" t="s">
         <v>146</v>
       </c>
-      <c r="D24" s="52">
+      <c r="D24" s="43">
         <f t="shared" ref="D24:L24" si="3">SUM(D16:D23)</f>
-        <v>3596.8059999999982</v>
-      </c>
-      <c r="E24" s="52">
+        <v>2407.5750000000003</v>
+      </c>
+      <c r="E24" s="43">
         <f t="shared" si="3"/>
         <v>12204.962</v>
       </c>
-      <c r="F24" s="52">
+      <c r="F24" s="43">
         <f t="shared" si="3"/>
         <v>27384.967000000001</v>
       </c>
-      <c r="G24" s="52">
+      <c r="G24" s="43">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H24" s="52">
+      <c r="H24" s="43">
         <f t="shared" si="3"/>
         <v>3667.0330000000004</v>
       </c>
-      <c r="I24" s="52">
+      <c r="I24" s="43">
         <f t="shared" si="3"/>
         <v>118.41</v>
       </c>
-      <c r="J24" s="52">
+      <c r="J24" s="43">
         <f t="shared" si="3"/>
         <v>2396.326</v>
       </c>
-      <c r="K24" s="52">
+      <c r="K24" s="43">
         <f>SUM(K16:K23)</f>
         <v>10422.934999999999</v>
       </c>
-      <c r="L24" s="54">
+      <c r="L24" s="45">
         <f t="shared" si="3"/>
-        <v>59791.438999999998</v>
-      </c>
-      <c r="M24" s="6"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" s="6"/>
-      <c r="D25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="6"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" s="6"/>
-      <c r="D26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-    </row>
-    <row r="27" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-      <c r="C27" s="51" t="s">
+        <v>58602.208000000006</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.6">
+      <c r="D25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.6">
+      <c r="D26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+    </row>
+    <row r="27" spans="2:13" ht="14.75" x14ac:dyDescent="0.75">
+      <c r="C27" s="42" t="s">
         <v>122</v>
       </c>
-      <c r="D27" s="51"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" s="6"/>
-      <c r="D28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" s="6"/>
-      <c r="D29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A30" s="6"/>
-      <c r="D30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A31" s="6"/>
-      <c r="D31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
-      <c r="M31" s="10"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32" s="6"/>
-      <c r="D32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="10"/>
-      <c r="M32" s="10"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A33" s="6"/>
-      <c r="D33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="10"/>
-      <c r="M33" s="10"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A34" s="6"/>
-      <c r="D34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="10"/>
-      <c r="L34" s="10"/>
-      <c r="M34" s="10"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A35" s="6"/>
-      <c r="D35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="10"/>
-      <c r="L35" s="10"/>
-      <c r="M35" s="10"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A36" s="6"/>
-      <c r="D36" s="23" t="s">
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.6">
+      <c r="D28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.6">
+      <c r="D29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.6">
+      <c r="D30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.6">
+      <c r="D31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.6">
+      <c r="D32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+    </row>
+    <row r="33" spans="3:13" x14ac:dyDescent="0.6">
+      <c r="D33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+    </row>
+    <row r="34" spans="3:13" x14ac:dyDescent="0.6">
+      <c r="D34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+    </row>
+    <row r="35" spans="3:13" x14ac:dyDescent="0.6">
+      <c r="D35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+    </row>
+    <row r="36" spans="3:13" x14ac:dyDescent="0.6">
+      <c r="D36" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="F36" s="10"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="28"/>
-      <c r="I36" s="28"/>
-      <c r="J36" s="28"/>
-      <c r="K36" s="28"/>
-      <c r="L36" s="28"/>
-      <c r="M36" s="28"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A37" s="6"/>
-      <c r="C37" s="24" t="s">
+      <c r="F36" s="7"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+    </row>
+    <row r="37" spans="3:13" x14ac:dyDescent="0.6">
+      <c r="C37" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="D37" s="25">
+      <c r="D37" s="18">
         <v>0.75</v>
       </c>
-      <c r="F37" s="10"/>
-      <c r="G37" s="29"/>
-      <c r="H37" s="29"/>
-      <c r="I37" s="29"/>
-      <c r="J37" s="29"/>
-      <c r="K37" s="29"/>
-      <c r="L37" s="29"/>
-      <c r="M37" s="29"/>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A38" s="6"/>
-      <c r="C38" s="26" t="s">
+      <c r="F37" s="7"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="21"/>
+      <c r="J37" s="21"/>
+      <c r="K37" s="21"/>
+      <c r="L37" s="21"/>
+      <c r="M37" s="21"/>
+    </row>
+    <row r="38" spans="3:13" x14ac:dyDescent="0.6">
+      <c r="C38" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="D38" s="27">
+      <c r="D38" s="20">
         <v>0.25</v>
       </c>
-      <c r="F38" s="10"/>
-      <c r="G38" s="29"/>
-      <c r="H38" s="29"/>
-      <c r="I38" s="29"/>
-      <c r="J38" s="29"/>
-      <c r="K38" s="29"/>
-      <c r="L38" s="29"/>
-      <c r="M38" s="29"/>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A39" s="6"/>
-      <c r="C39" s="28"/>
-      <c r="D39" s="29"/>
-      <c r="F39" s="10"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="21"/>
+      <c r="J38" s="21"/>
+      <c r="K38" s="21"/>
+      <c r="L38" s="21"/>
+      <c r="M38" s="21"/>
+    </row>
+    <row r="39" spans="3:13" x14ac:dyDescent="0.6">
+      <c r="C39" s="1"/>
+      <c r="D39" s="21"/>
+      <c r="F39" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5296,61 +5211,61 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:P16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K2" sqref="K2:P3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="1.85546875" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" customWidth="1"/>
-    <col min="3" max="3" width="6.85546875" customWidth="1"/>
-    <col min="12" max="12" width="6.7109375" customWidth="1"/>
-    <col min="14" max="14" width="5.42578125" customWidth="1"/>
+    <col min="1" max="1" width="1.86328125" customWidth="1"/>
+    <col min="2" max="2" width="7.7265625" customWidth="1"/>
+    <col min="3" max="3" width="6.86328125" customWidth="1"/>
+    <col min="12" max="12" width="6.7265625" customWidth="1"/>
+    <col min="14" max="14" width="5.40625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="69" t="s">
+    <row r="2" spans="2:16" ht="18" x14ac:dyDescent="0.8">
+      <c r="B2" s="60" t="s">
         <v>126</v>
       </c>
-      <c r="K2" s="69" t="s">
+      <c r="K2" s="60" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="3" spans="2:16" ht="18" x14ac:dyDescent="0.25">
-      <c r="K3" s="69" t="s">
+    <row r="3" spans="2:16" ht="18" x14ac:dyDescent="0.8">
+      <c r="K3" s="60" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B4" s="31" t="s">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.6">
+      <c r="B4" s="23" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="14" spans="2:16" ht="18" x14ac:dyDescent="0.25">
-      <c r="B14" s="69" t="s">
+    <row r="14" spans="2:16" ht="18" x14ac:dyDescent="0.8">
+      <c r="B14" s="60" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="D16" s="70" t="s">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.6">
+      <c r="D16" s="61" t="s">
         <v>147</v>
       </c>
-      <c r="E16" s="70"/>
-      <c r="F16" s="70"/>
-      <c r="G16" s="70"/>
-      <c r="H16" s="70"/>
-      <c r="I16" s="70"/>
-      <c r="J16" s="70"/>
-      <c r="K16" s="70"/>
-      <c r="L16" s="94"/>
-      <c r="M16" s="94"/>
-      <c r="N16" s="94"/>
-      <c r="O16" s="94"/>
-      <c r="P16" s="94"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="61"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="61"/>
+      <c r="K16" s="61"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5360,198 +5275,197 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:T27"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.26953125" customWidth="1"/>
+    <col min="4" max="4" width="13.26953125" customWidth="1"/>
+    <col min="5" max="5" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.1328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.40625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7265625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="2" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.140625" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="34.28515625" customWidth="1"/>
-    <col min="15" max="15" width="6.140625" customWidth="1"/>
-    <col min="16" max="16" width="11.5703125" customWidth="1"/>
-    <col min="17" max="17" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.1328125" customWidth="1"/>
+    <col min="13" max="13" width="11.40625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="34.26953125" customWidth="1"/>
+    <col min="15" max="15" width="6.1328125" customWidth="1"/>
+    <col min="16" max="16" width="11.54296875" customWidth="1"/>
+    <col min="17" max="17" width="12.86328125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.26953125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="B1" s="30" t="s">
+    <row r="1" spans="2:19" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="B1" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="F1" s="19"/>
-      <c r="G1" s="30" t="s">
+      <c r="F1" s="14"/>
+      <c r="G1" s="22" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="14"/>
-      <c r="C2" s="14" t="str">
+    <row r="2" spans="2:19" ht="16" x14ac:dyDescent="0.8">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9" t="str">
         <f>EnergyBalance!D2</f>
         <v>COA</v>
       </c>
-      <c r="D2" s="14" t="str">
+      <c r="D2" s="9" t="str">
         <f>EnergyBalance!D3</f>
         <v>Solid Fuels</v>
       </c>
-      <c r="E2" s="14" t="str">
+      <c r="E2" s="9" t="str">
         <f>EnergyBalance!R2</f>
         <v>PJ</v>
       </c>
-      <c r="G2" s="14" t="str">
+      <c r="G2" s="9" t="str">
         <f>EnergyBalance!Q2</f>
         <v>M€2005</v>
       </c>
-      <c r="K2" s="102" t="s">
+      <c r="K2" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="102"/>
-      <c r="M2" s="103"/>
-      <c r="N2" s="103"/>
-      <c r="O2" s="103"/>
-      <c r="P2" s="103"/>
-      <c r="Q2" s="103"/>
-      <c r="R2" s="103"/>
-      <c r="S2" s="103"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="K3" s="104" t="s">
+      <c r="L2" s="86"/>
+      <c r="M2" s="87"/>
+      <c r="N2" s="87"/>
+      <c r="O2" s="87"/>
+      <c r="P2" s="87"/>
+      <c r="Q2" s="87"/>
+      <c r="R2" s="87"/>
+      <c r="S2" s="87"/>
+    </row>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.6">
+      <c r="K3" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="105" t="s">
+      <c r="L3" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="104" t="s">
+      <c r="M3" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="N3" s="104" t="s">
+      <c r="N3" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="O3" s="104" t="s">
+      <c r="O3" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="P3" s="104" t="s">
+      <c r="P3" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="104" t="s">
+      <c r="Q3" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="R3" s="104" t="s">
+      <c r="R3" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="S3" s="104" t="s">
+      <c r="S3" s="88" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:19" ht="22.25" thickBot="1" x14ac:dyDescent="0.75">
       <c r="C4" s="1"/>
-      <c r="K4" s="106" t="s">
+      <c r="K4" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="L4" s="106" t="s">
+      <c r="L4" s="90" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="106" t="s">
+      <c r="M4" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="N4" s="106" t="s">
+      <c r="N4" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="O4" s="106" t="s">
+      <c r="O4" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="P4" s="106" t="s">
+      <c r="P4" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="Q4" s="106" t="s">
+      <c r="Q4" s="90" t="s">
         <v>43</v>
       </c>
-      <c r="R4" s="106" t="s">
+      <c r="R4" s="90" t="s">
         <v>28</v>
       </c>
-      <c r="S4" s="106" t="s">
+      <c r="S4" s="90" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="K5" s="107" t="s">
+    <row r="5" spans="2:19" x14ac:dyDescent="0.6">
+      <c r="K5" s="87" t="s">
         <v>92</v>
       </c>
-      <c r="L5" s="108"/>
-      <c r="M5" s="107" t="str">
+      <c r="L5" s="91"/>
+      <c r="M5" s="87" t="str">
         <f>C2</f>
         <v>COA</v>
       </c>
-      <c r="N5" s="107" t="str">
+      <c r="N5" s="87" t="str">
         <f>D2</f>
         <v>Solid Fuels</v>
       </c>
-      <c r="O5" s="107" t="str">
+      <c r="O5" s="87" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="P5" s="107"/>
-      <c r="Q5" s="107"/>
-      <c r="R5" s="107"/>
-      <c r="S5" s="107"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="K6" s="12"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="P5" s="87"/>
+      <c r="Q5" s="87"/>
+      <c r="R5" s="87"/>
+      <c r="S5" s="87"/>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.6">
+      <c r="K6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.6">
       <c r="F7" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H7" s="5"/>
-      <c r="K7" s="102" t="s">
+      <c r="K7" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="L7" s="102"/>
-      <c r="M7" s="109"/>
-      <c r="N7" s="109"/>
-      <c r="O7" s="109"/>
-      <c r="P7" s="109"/>
-      <c r="Q7" s="109"/>
-      <c r="R7" s="109"/>
-      <c r="S7" s="109"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="L7" s="86"/>
+      <c r="M7" s="91"/>
+      <c r="N7" s="91"/>
+      <c r="O7" s="91"/>
+      <c r="P7" s="91"/>
+      <c r="Q7" s="91"/>
+      <c r="R7" s="91"/>
+      <c r="S7" s="91"/>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.6">
       <c r="B8" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="13" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -5563,467 +5477,400 @@
       <c r="F8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="101" t="s">
+      <c r="G8" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="101" t="s">
+      <c r="H8" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="I8" s="101" t="s">
+      <c r="I8" s="85" t="s">
         <v>99</v>
       </c>
-      <c r="K8" s="104" t="s">
+      <c r="K8" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="L8" s="105" t="s">
+      <c r="L8" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="M8" s="104" t="s">
+      <c r="M8" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="N8" s="104" t="s">
+      <c r="N8" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="O8" s="104" t="s">
+      <c r="O8" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="P8" s="104" t="s">
+      <c r="P8" s="88" t="s">
         <v>17</v>
       </c>
-      <c r="Q8" s="104" t="s">
+      <c r="Q8" s="88" t="s">
         <v>18</v>
       </c>
-      <c r="R8" s="104" t="s">
+      <c r="R8" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="S8" s="104" t="s">
+      <c r="S8" s="88" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="16" t="s">
+    <row r="9" spans="2:19" ht="22.25" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B9" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16" t="s">
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="H9" s="16" t="s">
+      <c r="H9" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="I9" s="16" t="s">
+      <c r="I9" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="K9" s="106" t="s">
+      <c r="K9" s="90" t="s">
         <v>40</v>
       </c>
-      <c r="L9" s="106" t="s">
+      <c r="L9" s="90" t="s">
         <v>31</v>
       </c>
-      <c r="M9" s="106" t="s">
+      <c r="M9" s="90" t="s">
         <v>21</v>
       </c>
-      <c r="N9" s="106" t="s">
+      <c r="N9" s="90" t="s">
         <v>22</v>
       </c>
-      <c r="O9" s="106" t="s">
+      <c r="O9" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="P9" s="106" t="s">
+      <c r="P9" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="Q9" s="106" t="s">
+      <c r="Q9" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="R9" s="106" t="s">
+      <c r="R9" s="90" t="s">
         <v>44</v>
       </c>
-      <c r="S9" s="106" t="s">
+      <c r="S9" s="90" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="16" t="s">
+    <row r="10" spans="2:19" ht="13.75" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B10" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15" t="str">
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="H10" s="15" t="str">
+      <c r="H10" s="10" t="str">
         <f>$G$2&amp;"/"&amp;$E$2</f>
         <v>M€2005/PJ</v>
       </c>
-      <c r="I10" s="15" t="str">
+      <c r="I10" s="10" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="K10" s="106" t="s">
+      <c r="K10" s="90" t="s">
         <v>101</v>
       </c>
-      <c r="L10" s="110"/>
-      <c r="M10" s="110"/>
-      <c r="N10" s="110"/>
-      <c r="O10" s="110"/>
-      <c r="P10" s="110"/>
-      <c r="Q10" s="110"/>
-      <c r="R10" s="110"/>
-      <c r="S10" s="110"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B11" s="12" t="str">
+      <c r="L10" s="92"/>
+      <c r="M10" s="92"/>
+      <c r="N10" s="92"/>
+      <c r="O10" s="92"/>
+      <c r="P10" s="92"/>
+      <c r="Q10" s="92"/>
+      <c r="R10" s="92"/>
+      <c r="S10" s="92"/>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.6">
+      <c r="B11" s="1" t="str">
         <f>M11</f>
         <v>MINCOA1</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12" t="str">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1" t="str">
         <f>$M$5</f>
         <v>COA</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="1">
         <v>2005</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="G11" s="67">
+      <c r="G11" s="58">
         <v>80000</v>
       </c>
-      <c r="H11" s="68">
+      <c r="H11" s="59">
         <v>2</v>
       </c>
-      <c r="I11" s="64">
+      <c r="I11" s="55">
         <f>EnergyBalance!$D$5*EnergyBalance!D37</f>
-        <v>6073.7685000000001</v>
-      </c>
-      <c r="J11" s="6"/>
-      <c r="K11" s="107" t="str">
+        <v>925.5</v>
+      </c>
+      <c r="K11" s="87" t="str">
         <f>EnergyBalance!$B$5</f>
         <v>MIN</v>
       </c>
-      <c r="L11" s="108"/>
-      <c r="M11" s="108" t="str">
+      <c r="L11" s="91"/>
+      <c r="M11" s="91" t="str">
         <f>$K$11&amp;$C$2&amp;1</f>
         <v>MINCOA1</v>
       </c>
-      <c r="N11" s="111" t="str">
+      <c r="N11" s="93" t="str">
         <f>"Domestic Supply of "&amp;$D$2&amp; " Step "&amp;RIGHT(M11,1)</f>
         <v>Domestic Supply of Solid Fuels Step 1</v>
       </c>
-      <c r="O11" s="108" t="str">
+      <c r="O11" s="91" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="P11" s="108"/>
-      <c r="Q11" s="108"/>
-      <c r="R11" s="108"/>
-      <c r="S11" s="108"/>
-    </row>
-    <row r="12" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12">
+      <c r="P11" s="91"/>
+      <c r="Q11" s="91"/>
+      <c r="R11" s="91"/>
+      <c r="S11" s="91"/>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.6">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1">
         <v>2006</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="F12" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="G12" s="98"/>
-      <c r="H12" s="99"/>
-      <c r="I12" s="100">
+      <c r="G12" s="82"/>
+      <c r="H12" s="83"/>
+      <c r="I12" s="84">
         <f>I11</f>
-        <v>6073.7685000000001</v>
-      </c>
-      <c r="K12" s="108"/>
-      <c r="L12" s="108"/>
-      <c r="M12" s="108" t="str">
+        <v>925.5</v>
+      </c>
+      <c r="K12" s="91"/>
+      <c r="L12" s="91"/>
+      <c r="M12" s="91" t="str">
         <f>$K$11&amp;$C$2&amp;2</f>
         <v>MINCOA2</v>
       </c>
-      <c r="N12" s="111" t="str">
+      <c r="N12" s="93" t="str">
         <f>"Domestic Supply of "&amp;$D$2&amp; " Step "&amp;RIGHT(M12,1)</f>
         <v>Domestic Supply of Solid Fuels Step 2</v>
       </c>
-      <c r="O12" s="108" t="str">
+      <c r="O12" s="91" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="P12" s="108"/>
-      <c r="Q12" s="108"/>
-      <c r="R12" s="108"/>
-      <c r="S12" s="108"/>
-    </row>
-    <row r="13" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="12" t="str">
+      <c r="P12" s="91"/>
+      <c r="Q12" s="91"/>
+      <c r="R12" s="91"/>
+      <c r="S12" s="91"/>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.6">
+      <c r="B13" s="1" t="str">
         <f>M12</f>
         <v>MINCOA2</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12" t="str">
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="str">
         <f>$M$5</f>
         <v>COA</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="1">
         <v>2005</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="F13" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="G13" s="67">
+      <c r="G13" s="58">
         <v>160000</v>
       </c>
-      <c r="H13" s="68">
+      <c r="H13" s="59">
         <v>2.5</v>
       </c>
-      <c r="I13" s="64">
+      <c r="I13" s="55">
         <f>EnergyBalance!$D$5*EnergyBalance!D38</f>
-        <v>2024.5895</v>
-      </c>
-      <c r="K13" s="108"/>
-      <c r="L13" s="108"/>
-      <c r="M13" s="108" t="str">
+        <v>308.5</v>
+      </c>
+      <c r="K13" s="91"/>
+      <c r="L13" s="91"/>
+      <c r="M13" s="91" t="str">
         <f>$K$11&amp;$C$2&amp;3</f>
         <v>MINCOA3</v>
       </c>
-      <c r="N13" s="111" t="str">
+      <c r="N13" s="93" t="str">
         <f>"Domestic Supply of "&amp;$D$2&amp; " Step "&amp;RIGHT(M13,1)</f>
         <v>Domestic Supply of Solid Fuels Step 3</v>
       </c>
-      <c r="O13" s="108" t="str">
+      <c r="O13" s="91" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="P13" s="108"/>
-      <c r="Q13" s="108"/>
-      <c r="R13" s="108"/>
-      <c r="S13" s="108"/>
-    </row>
-    <row r="14" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12">
+      <c r="P13" s="91"/>
+      <c r="Q13" s="91"/>
+      <c r="R13" s="91"/>
+      <c r="S13" s="91"/>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.6">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1">
         <v>2006</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="F14" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="G14" s="98"/>
-      <c r="H14" s="99"/>
-      <c r="I14" s="100">
+      <c r="G14" s="82"/>
+      <c r="H14" s="83"/>
+      <c r="I14" s="84">
         <f>I13</f>
-        <v>2024.5895</v>
-      </c>
-      <c r="K14" s="108" t="str">
+        <v>308.5</v>
+      </c>
+      <c r="K14" s="91" t="str">
         <f>EnergyBalance!$B$6</f>
         <v>IMP</v>
       </c>
-      <c r="L14" s="108"/>
-      <c r="M14" s="108" t="str">
+      <c r="L14" s="91"/>
+      <c r="M14" s="91" t="str">
         <f>$K$14&amp;$C$2&amp;1</f>
         <v>IMPCOA1</v>
       </c>
-      <c r="N14" s="111" t="str">
+      <c r="N14" s="93" t="str">
         <f>"Import of "&amp;$D$2&amp; " Step "&amp;RIGHT(M14,1)</f>
         <v>Import of Solid Fuels Step 1</v>
       </c>
-      <c r="O14" s="108" t="str">
+      <c r="O14" s="91" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="P14" s="108"/>
-      <c r="Q14" s="108"/>
-      <c r="R14" s="108"/>
-      <c r="S14" s="108"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A15" s="6"/>
-      <c r="B15" s="12" t="str">
+      <c r="P14" s="91"/>
+      <c r="Q14" s="91"/>
+      <c r="R14" s="91"/>
+      <c r="S14" s="91"/>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.6">
+      <c r="B15" s="1" t="str">
         <f>M13</f>
         <v>MINCOA3</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12" t="str">
+      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="str">
         <f>$M$5</f>
         <v>COA</v>
       </c>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="67">
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="58">
         <v>320000</v>
       </c>
-      <c r="H15" s="68">
+      <c r="H15" s="59">
         <v>3</v>
       </c>
-      <c r="I15" s="100"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="108" t="str">
+      <c r="I15" s="84"/>
+      <c r="K15" s="91" t="str">
         <f>EnergyBalance!B7</f>
         <v>EXP</v>
       </c>
-      <c r="L15" s="108"/>
-      <c r="M15" s="108" t="str">
+      <c r="L15" s="91"/>
+      <c r="M15" s="91" t="str">
         <f>$K$15&amp;$C$2&amp;1</f>
         <v>EXPCOA1</v>
       </c>
-      <c r="N15" s="111" t="str">
+      <c r="N15" s="93" t="str">
         <f>"Export of "&amp;$D$2&amp; " Step "&amp;RIGHT(M15,1)</f>
         <v>Export of Solid Fuels Step 1</v>
       </c>
-      <c r="O15" s="108" t="str">
+      <c r="O15" s="91" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="P15" s="108"/>
-      <c r="Q15" s="108"/>
-      <c r="R15" s="108"/>
-      <c r="S15" s="108"/>
-      <c r="T15" s="6"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A16" s="6"/>
-      <c r="B16" s="12" t="str">
+      <c r="P15" s="91"/>
+      <c r="Q15" s="91"/>
+      <c r="R15" s="91"/>
+      <c r="S15" s="91"/>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.6">
+      <c r="B16" s="1" t="str">
         <f>M14</f>
         <v>IMPCOA1</v>
       </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12" t="str">
+      <c r="C16" s="1"/>
+      <c r="D16" s="1" t="str">
         <f>$M$5</f>
         <v>COA</v>
       </c>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="68">
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="59">
         <v>2.75</v>
       </c>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6"/>
-      <c r="S16" s="6"/>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B17" s="12" t="str">
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.6">
+      <c r="B17" s="1" t="str">
         <f>M15</f>
         <v>EXPCOA1</v>
       </c>
-      <c r="C17" s="12" t="str">
+      <c r="C17" s="1" t="str">
         <f>$M$5</f>
         <v>COA</v>
       </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12">
+      <c r="D17" s="1"/>
+      <c r="E17" s="1">
         <v>2005</v>
       </c>
-      <c r="F17" s="12" t="s">
+      <c r="F17" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="H17" s="68">
+      <c r="H17" s="59">
         <v>2.75</v>
       </c>
-      <c r="I17" s="65">
+      <c r="I17" s="56">
         <f>-EnergyBalance!D7</f>
-        <v>1147.069</v>
-      </c>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="6"/>
-      <c r="S17" s="6"/>
-    </row>
-    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="E18" s="12">
+        <v>-1234</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.6">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="E18" s="1">
         <v>2006</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="F18" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="G18" s="11"/>
-      <c r="H18"/>
-      <c r="I18" s="100">
+      <c r="G18" s="1"/>
+      <c r="I18" s="84">
         <f>I17</f>
-        <v>1147.069</v>
-      </c>
-      <c r="J18"/>
-      <c r="T18"/>
-    </row>
-    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19"/>
-      <c r="E19"/>
-      <c r="F19"/>
-      <c r="G19"/>
-      <c r="H19"/>
-      <c r="I19"/>
-      <c r="J19"/>
-    </row>
-    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B20"/>
-      <c r="C20"/>
-      <c r="D20"/>
-      <c r="E20"/>
-      <c r="F20"/>
-      <c r="G20"/>
-      <c r="H20"/>
-      <c r="I20"/>
-    </row>
-    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B21"/>
-      <c r="C21"/>
-      <c r="D21"/>
-      <c r="E21"/>
-      <c r="F21"/>
-      <c r="G21"/>
-      <c r="H21"/>
-      <c r="I21"/>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A22" s="6"/>
-      <c r="B22" s="67"/>
+        <v>-1234</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.6">
+      <c r="B22" s="58"/>
       <c r="C22" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="J22" s="6"/>
-      <c r="T22" s="6"/>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A23" s="6"/>
-      <c r="B23" s="66"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.6">
+      <c r="B23" s="57"/>
       <c r="C23" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="J23" s="6"/>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="J24" s="6"/>
-    </row>
-    <row r="25" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
@@ -6033,7 +5880,7 @@
       <c r="G25"/>
       <c r="H25"/>
       <c r="I25"/>
-      <c r="J25" s="6"/>
+      <c r="J25"/>
       <c r="K25"/>
       <c r="L25"/>
       <c r="M25"/>
@@ -6045,135 +5892,11 @@
       <c r="S25"/>
       <c r="T25"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="J26" s="6"/>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.6">
       <c r="T26" s="1"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A27" s="1"/>
-    </row>
-    <row r="28" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28"/>
-      <c r="B28"/>
-      <c r="C28"/>
-      <c r="D28"/>
-      <c r="E28"/>
-      <c r="F28"/>
-      <c r="G28"/>
-      <c r="H28"/>
-      <c r="I28"/>
-      <c r="J28"/>
-      <c r="K28"/>
-      <c r="L28"/>
-      <c r="M28"/>
-      <c r="N28"/>
-      <c r="O28"/>
-      <c r="P28"/>
-      <c r="Q28"/>
-      <c r="R28"/>
-      <c r="S28"/>
-      <c r="T28"/>
-    </row>
-    <row r="29" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29"/>
-      <c r="B29"/>
-      <c r="C29"/>
-      <c r="D29"/>
-      <c r="E29"/>
-      <c r="F29"/>
-      <c r="G29"/>
-      <c r="H29"/>
-      <c r="I29"/>
-      <c r="J29"/>
-      <c r="K29"/>
-      <c r="L29"/>
-      <c r="M29"/>
-      <c r="N29"/>
-      <c r="O29"/>
-      <c r="P29"/>
-      <c r="Q29"/>
-      <c r="R29"/>
-      <c r="S29"/>
-    </row>
-    <row r="30" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B30"/>
-      <c r="C30"/>
-      <c r="D30"/>
-      <c r="E30"/>
-      <c r="F30"/>
-      <c r="G30"/>
-      <c r="H30"/>
-      <c r="I30"/>
-      <c r="J30"/>
-      <c r="K30"/>
-      <c r="L30"/>
-      <c r="M30"/>
-      <c r="N30"/>
-      <c r="O30"/>
-      <c r="P30"/>
-      <c r="Q30"/>
-      <c r="R30"/>
-      <c r="S30"/>
-    </row>
-    <row r="31" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B31"/>
-      <c r="C31"/>
-      <c r="D31"/>
-      <c r="E31"/>
-      <c r="F31"/>
-      <c r="G31"/>
-      <c r="H31"/>
-      <c r="I31"/>
-      <c r="J31"/>
-    </row>
-    <row r="32" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B32"/>
-      <c r="C32"/>
-      <c r="D32"/>
-      <c r="E32"/>
-      <c r="F32"/>
-      <c r="G32"/>
-      <c r="H32"/>
-      <c r="I32"/>
-      <c r="J32"/>
-    </row>
-    <row r="33" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B33"/>
-      <c r="C33"/>
-      <c r="D33"/>
-      <c r="E33"/>
-      <c r="F33"/>
-      <c r="G33"/>
-      <c r="H33"/>
-      <c r="I33"/>
-      <c r="J33"/>
-    </row>
-    <row r="34" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B34"/>
-      <c r="C34"/>
-      <c r="D34"/>
-      <c r="E34"/>
-      <c r="F34"/>
-      <c r="G34"/>
-      <c r="H34"/>
-      <c r="I34"/>
-      <c r="J34"/>
-      <c r="K34"/>
-      <c r="L34"/>
-      <c r="M34"/>
-      <c r="N34"/>
-      <c r="O34"/>
-      <c r="P34"/>
-      <c r="Q34"/>
-      <c r="R34"/>
-      <c r="S34"/>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A35" s="6"/>
-      <c r="T35" s="6"/>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A36" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6185,351 +5908,351 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:T28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.86328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.40625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.26953125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="2.7109375" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.140625" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="42.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.85546875" customWidth="1"/>
-    <col min="17" max="17" width="11.7109375" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" customWidth="1"/>
-    <col min="19" max="19" width="13.85546875" customWidth="1"/>
-    <col min="20" max="20" width="8.42578125" customWidth="1"/>
+    <col min="11" max="11" width="2.7265625" customWidth="1"/>
+    <col min="12" max="12" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.1328125" customWidth="1"/>
+    <col min="14" max="14" width="11.40625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="42.54296875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.86328125" customWidth="1"/>
+    <col min="17" max="17" width="11.7265625" customWidth="1"/>
+    <col min="18" max="18" width="13.40625" customWidth="1"/>
+    <col min="19" max="19" width="13.86328125" customWidth="1"/>
+    <col min="20" max="20" width="8.40625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="B1" s="13" t="s">
+    <row r="1" spans="2:20" ht="14.75" x14ac:dyDescent="0.75">
+      <c r="B1" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="8" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="2" spans="2:20" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="14" t="str">
+    <row r="2" spans="2:20" ht="32" x14ac:dyDescent="0.8">
+      <c r="B2" s="9" t="str">
         <f>EnergyBalance!B8</f>
         <v>TPS</v>
       </c>
-      <c r="C2" s="72" t="str">
+      <c r="C2" s="63" t="str">
         <f>EnergyBalance!C8</f>
         <v>Total Primary Supply</v>
       </c>
-      <c r="D2" s="72" t="str">
+      <c r="D2" s="63" t="str">
         <f>"Demand Technology"</f>
         <v>Demand Technology</v>
       </c>
-      <c r="E2" s="14" t="str">
+      <c r="E2" s="9" t="str">
         <f>EnergyBalance!R2</f>
         <v>PJ</v>
       </c>
-      <c r="F2" s="14" t="str">
+      <c r="F2" s="9" t="str">
         <f>EnergyBalance!Q2</f>
         <v>M€2005</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="L2" s="102" t="s">
+      <c r="L2" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="102"/>
-      <c r="N2" s="103"/>
-      <c r="O2" s="103"/>
-      <c r="P2" s="103"/>
-      <c r="Q2" s="103"/>
-      <c r="R2" s="103"/>
-      <c r="S2" s="103"/>
-      <c r="T2" s="103"/>
-    </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="L3" s="104" t="s">
+      <c r="M2" s="86"/>
+      <c r="N2" s="87"/>
+      <c r="O2" s="87"/>
+      <c r="P2" s="87"/>
+      <c r="Q2" s="87"/>
+      <c r="R2" s="87"/>
+      <c r="S2" s="87"/>
+      <c r="T2" s="87"/>
+    </row>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.6">
+      <c r="L3" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="105" t="s">
+      <c r="M3" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="N3" s="104" t="s">
+      <c r="N3" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="O3" s="104" t="s">
+      <c r="O3" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="P3" s="104" t="s">
+      <c r="P3" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="Q3" s="104" t="s">
+      <c r="Q3" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="R3" s="104" t="s">
+      <c r="R3" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="S3" s="104" t="s">
+      <c r="S3" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="T3" s="104" t="s">
+      <c r="T3" s="88" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:20" s="6" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="L4" s="106" t="s">
+    <row r="4" spans="2:20" ht="23.25" thickBot="1" x14ac:dyDescent="0.95">
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="L4" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="M4" s="106" t="s">
+      <c r="M4" s="90" t="s">
         <v>31</v>
       </c>
-      <c r="N4" s="106" t="s">
+      <c r="N4" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="O4" s="106" t="s">
+      <c r="O4" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="P4" s="106" t="s">
+      <c r="P4" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="Q4" s="106" t="s">
+      <c r="Q4" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="R4" s="106" t="s">
+      <c r="R4" s="90" t="s">
         <v>43</v>
       </c>
-      <c r="S4" s="106" t="s">
+      <c r="S4" s="90" t="s">
         <v>28</v>
       </c>
-      <c r="T4" s="106" t="s">
+      <c r="T4" s="90" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:20" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="73"/>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="L5" s="107" t="s">
+    <row r="5" spans="2:20" ht="16" x14ac:dyDescent="0.8">
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="L5" s="87" t="s">
         <v>103</v>
       </c>
-      <c r="M5" s="108"/>
-      <c r="N5" s="107" t="str">
+      <c r="M5" s="91"/>
+      <c r="N5" s="87" t="str">
         <f>B2&amp;EnergyBalance!D2</f>
         <v>TPSCOA</v>
       </c>
-      <c r="O5" s="107" t="str">
+      <c r="O5" s="87" t="str">
         <f>LEFT($D$2,6)&amp;" "&amp;$C$2&amp;" - "&amp;EnergyBalance!D2</f>
         <v>Demand Total Primary Supply - COA</v>
       </c>
-      <c r="P5" s="107" t="str">
+      <c r="P5" s="87" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="Q5" s="107"/>
-      <c r="R5" s="107"/>
-      <c r="S5" s="107"/>
-      <c r="T5" s="107"/>
-    </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="Q5" s="87"/>
+      <c r="R5" s="87"/>
+      <c r="S5" s="87"/>
+      <c r="T5" s="87"/>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.6">
       <c r="D8" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="H8" s="5"/>
-      <c r="I8" s="74"/>
-      <c r="J8" s="75"/>
-      <c r="L8" s="102" t="s">
+      <c r="I8" s="65"/>
+      <c r="J8" s="66"/>
+      <c r="L8" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="M8" s="102"/>
-      <c r="N8" s="109"/>
-      <c r="O8" s="109"/>
-      <c r="P8" s="109"/>
-      <c r="Q8" s="109"/>
-      <c r="R8" s="109"/>
-      <c r="S8" s="109"/>
-      <c r="T8" s="109"/>
-    </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B9" s="77" t="s">
+      <c r="M8" s="86"/>
+      <c r="N8" s="91"/>
+      <c r="O8" s="91"/>
+      <c r="P8" s="91"/>
+      <c r="Q8" s="91"/>
+      <c r="R8" s="91"/>
+      <c r="S8" s="91"/>
+      <c r="T8" s="91"/>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.6">
+      <c r="B9" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="77" t="s">
+      <c r="C9" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="77" t="s">
+      <c r="D9" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="93" t="s">
+      <c r="E9" s="79" t="s">
         <v>131</v>
       </c>
-      <c r="F9" s="77" t="s">
+      <c r="F9" s="68" t="s">
         <v>132</v>
       </c>
-      <c r="G9" s="77" t="s">
+      <c r="G9" s="68" t="s">
         <v>133</v>
       </c>
-      <c r="H9" s="77" t="s">
+      <c r="H9" s="68" t="s">
         <v>134</v>
       </c>
-      <c r="I9" s="77" t="s">
+      <c r="I9" s="68" t="s">
         <v>135</v>
       </c>
-      <c r="J9" s="93" t="s">
+      <c r="J9" s="79" t="s">
         <v>136</v>
       </c>
-      <c r="L9" s="104" t="s">
+      <c r="L9" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="M9" s="105" t="s">
+      <c r="M9" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="N9" s="104" t="s">
+      <c r="N9" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="O9" s="104" t="s">
+      <c r="O9" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="P9" s="104" t="s">
+      <c r="P9" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="Q9" s="104" t="s">
+      <c r="Q9" s="88" t="s">
         <v>17</v>
       </c>
-      <c r="R9" s="104" t="s">
+      <c r="R9" s="88" t="s">
         <v>18</v>
       </c>
-      <c r="S9" s="104" t="s">
+      <c r="S9" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="T9" s="104" t="s">
+      <c r="T9" s="88" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="2:20" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="17" t="s">
+    <row r="10" spans="2:20" ht="22.25" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B10" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="F10" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="G10" s="92" t="s">
+      <c r="G10" s="78" t="s">
         <v>139</v>
       </c>
-      <c r="H10" s="17" t="s">
+      <c r="H10" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="I10" s="17" t="s">
+      <c r="I10" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="J10" s="17" t="s">
+      <c r="J10" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="L10" s="106" t="s">
+      <c r="L10" s="90" t="s">
         <v>40</v>
       </c>
-      <c r="M10" s="106" t="s">
+      <c r="M10" s="90" t="s">
         <v>31</v>
       </c>
-      <c r="N10" s="106" t="s">
+      <c r="N10" s="90" t="s">
         <v>21</v>
       </c>
-      <c r="O10" s="106" t="s">
+      <c r="O10" s="90" t="s">
         <v>22</v>
       </c>
-      <c r="P10" s="106" t="s">
+      <c r="P10" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="Q10" s="106" t="s">
+      <c r="Q10" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="R10" s="106" t="s">
+      <c r="R10" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="S10" s="106" t="s">
+      <c r="S10" s="90" t="s">
         <v>44</v>
       </c>
-      <c r="T10" s="106" t="s">
+      <c r="T10" s="90" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="2:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="16" t="s">
+    <row r="11" spans="2:20" ht="13.75" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B11" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="15" t="str">
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="10" t="str">
         <f>E2&amp;"a"</f>
         <v>PJa</v>
       </c>
-      <c r="F11" s="15"/>
-      <c r="G11" s="78"/>
-      <c r="H11" s="15" t="str">
+      <c r="F11" s="10"/>
+      <c r="G11" s="69"/>
+      <c r="H11" s="10" t="str">
         <f>$F$2&amp;"/"&amp;$E$2</f>
         <v>M€2005/PJ</v>
       </c>
-      <c r="I11" s="15" t="str">
+      <c r="I11" s="10" t="str">
         <f>$F$2&amp;"/"&amp;$E$2&amp;"a"</f>
         <v>M€2005/PJa</v>
       </c>
-      <c r="J11" s="15" t="s">
+      <c r="J11" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="L11" s="106" t="s">
+      <c r="L11" s="90" t="s">
         <v>101</v>
       </c>
-      <c r="M11" s="106"/>
-      <c r="N11" s="106"/>
-      <c r="O11" s="106"/>
-      <c r="P11" s="106"/>
-      <c r="Q11" s="106"/>
-      <c r="R11" s="106"/>
-      <c r="S11" s="106"/>
-      <c r="T11" s="106"/>
-    </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="M11" s="90"/>
+      <c r="N11" s="90"/>
+      <c r="O11" s="90"/>
+      <c r="P11" s="90"/>
+      <c r="Q11" s="90"/>
+      <c r="R11" s="90"/>
+      <c r="S11" s="90"/>
+      <c r="T11" s="90"/>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.6">
       <c r="B12" t="str">
         <f>N12</f>
         <v>DTPSCOA</v>
@@ -6542,213 +6265,95 @@
         <f>$N$5</f>
         <v>TPSCOA</v>
       </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="79">
+      <c r="F12" s="70">
         <v>1</v>
       </c>
-      <c r="G12" s="79">
+      <c r="G12" s="70">
         <v>0.95</v>
       </c>
-      <c r="H12" s="45">
+      <c r="H12" s="36">
         <v>10</v>
       </c>
-      <c r="I12" s="79">
+      <c r="I12" s="70">
         <f>H12*0.02</f>
         <v>0.2</v>
       </c>
-      <c r="J12" s="45">
+      <c r="J12" s="36">
         <v>20</v>
       </c>
-      <c r="L12" s="107" t="s">
+      <c r="L12" s="87" t="s">
         <v>143</v>
       </c>
-      <c r="M12" s="108"/>
-      <c r="N12" s="108" t="str">
+      <c r="M12" s="91"/>
+      <c r="N12" s="91" t="str">
         <f>LEFT(L12,1)&amp;B2&amp;RIGHT(O12,3)</f>
         <v>DTPSCOA</v>
       </c>
-      <c r="O12" s="112" t="str">
+      <c r="O12" s="91" t="str">
         <f>$D$2&amp;" "&amp;$C$2&amp;" - "&amp;EnergyBalance!D2</f>
         <v>Demand Technology Total Primary Supply - COA</v>
       </c>
-      <c r="P12" s="108" t="str">
+      <c r="P12" s="91" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="Q12" s="108" t="str">
+      <c r="Q12" s="91" t="str">
         <f>$E$2&amp;"a"</f>
         <v>PJa</v>
       </c>
-      <c r="R12" s="108"/>
-      <c r="S12" s="108"/>
-      <c r="T12" s="108"/>
-    </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="D13" s="6"/>
-      <c r="E13" s="83"/>
-      <c r="F13" s="84"/>
-      <c r="G13" s="84"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="84"/>
-      <c r="J13" s="6"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="80"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
-      <c r="S13" s="6"/>
-      <c r="T13" s="6"/>
-    </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="81"/>
-      <c r="H14" s="82"/>
-      <c r="I14" s="81"/>
-      <c r="J14" s="82"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="6"/>
-      <c r="T14" s="6"/>
-    </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B15" s="8"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="81"/>
-      <c r="G15" s="81"/>
-      <c r="H15" s="82"/>
-      <c r="I15" s="81"/>
-      <c r="J15" s="82"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="6"/>
-      <c r="T15" s="6"/>
-    </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6"/>
-      <c r="S16" s="6"/>
-      <c r="T16" s="6"/>
-    </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="6"/>
-      <c r="S17" s="6"/>
-      <c r="T17" s="6"/>
-    </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="I18" s="76"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="6"/>
-      <c r="S18" s="6"/>
-      <c r="T18" s="6"/>
-    </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="I19" s="76"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="6"/>
-      <c r="S19" s="6"/>
-      <c r="T19" s="6"/>
-    </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="6"/>
-      <c r="S20" s="6"/>
-      <c r="T20" s="6"/>
-    </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="6"/>
-      <c r="R21" s="6"/>
-      <c r="S21" s="6"/>
-      <c r="T21" s="6"/>
-    </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="6"/>
-      <c r="R22" s="6"/>
-      <c r="S22" s="6"/>
-      <c r="T22" s="6"/>
-    </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B23" s="45"/>
+      <c r="R12" s="91"/>
+      <c r="S12" s="91"/>
+      <c r="T12" s="91"/>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.6">
+      <c r="E13" s="7"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="71"/>
+      <c r="I13" s="71"/>
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.6">
+      <c r="E14" s="7"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="71"/>
+      <c r="I14" s="71"/>
+      <c r="O14" s="14"/>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.6">
+      <c r="E15" s="7"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="71"/>
+      <c r="I15" s="71"/>
+      <c r="O15" s="14"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.6">
+      <c r="I18" s="67"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.6">
+      <c r="I19" s="67"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.6">
+      <c r="B23" s="36"/>
       <c r="C23" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B24" s="66"/>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.6">
+      <c r="B24" s="57"/>
       <c r="C24" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.6">
       <c r="K25" s="1"/>
     </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.6">
       <c r="K26" s="1"/>
     </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.6">
       <c r="K27" s="1"/>
     </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.6">
       <c r="K28" s="1"/>
     </row>
   </sheetData>
@@ -6759,70 +6364,65 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="B1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="12.42578125" customWidth="1"/>
-    <col min="10" max="10" width="7.28515625" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.86328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="12.40625" customWidth="1"/>
+    <col min="10" max="10" width="7.26953125" customWidth="1"/>
+    <col min="11" max="11" width="11.40625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B1" s="13" t="s">
+    <row r="1" spans="2:9" ht="14.75" x14ac:dyDescent="0.75">
+      <c r="B1" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="8" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="14" t="s">
+    <row r="2" spans="2:9" ht="16" x14ac:dyDescent="0.8">
+      <c r="B2" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14" t="str">
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9" t="str">
         <f>EnergyBalance!R2</f>
         <v>PJ</v>
       </c>
-      <c r="G2" s="14" t="str">
+      <c r="G2" s="9" t="str">
         <f>EnergyBalance!Q2</f>
         <v>M€2005</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.6">
       <c r="C5" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="82"/>
-      <c r="G5" s="82"/>
-      <c r="H5" s="82"/>
-      <c r="I5" s="82"/>
-      <c r="J5" s="82"/>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.6">
       <c r="B6" s="3" t="s">
         <v>100</v>
       </c>
@@ -6835,135 +6435,82 @@
       <c r="E6" s="3">
         <v>2005</v>
       </c>
-      <c r="F6" s="96"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="96"/>
-      <c r="I6" s="96"/>
-      <c r="J6" s="82"/>
-    </row>
-    <row r="7" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="B7" s="17" t="s">
+      <c r="F6" s="80"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="80"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.6">
+      <c r="B7" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="97"/>
-      <c r="G7" s="97"/>
-      <c r="H7" s="97"/>
-      <c r="I7" s="97"/>
-      <c r="J7" s="82"/>
-    </row>
-    <row r="8" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="16" t="s">
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="81"/>
+    </row>
+    <row r="8" spans="2:9" ht="13.75" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B8" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16" t="str">
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11" t="str">
         <f>E2</f>
         <v>PJ</v>
       </c>
-      <c r="F8" s="97"/>
-      <c r="G8" s="97"/>
-      <c r="H8" s="97"/>
-      <c r="I8" s="97"/>
-      <c r="J8" s="82"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B9" s="33" t="s">
+      <c r="F8" s="81"/>
+      <c r="G8" s="81"/>
+      <c r="H8" s="81"/>
+      <c r="I8" s="81"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.6">
+      <c r="B9" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="33" t="str">
+      <c r="C9" s="25" t="str">
         <f>DemTechs_TPS!N5</f>
         <v>TPSCOA</v>
       </c>
-      <c r="D9" s="33" t="s">
+      <c r="D9" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="E9" s="71">
+      <c r="E9" s="62">
         <f>EnergyBalance!D24-EnergyBalance!D14</f>
-        <v>13413.960000000001</v>
-      </c>
-      <c r="F9" s="82"/>
-      <c r="G9" s="82"/>
-      <c r="H9" s="82"/>
-      <c r="I9" s="82"/>
-      <c r="J9" s="82"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="F10" s="82"/>
-      <c r="G10" s="82"/>
-      <c r="H10" s="82"/>
-      <c r="I10" s="82"/>
-      <c r="J10" s="82"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="F11" s="82"/>
-      <c r="G11" s="95"/>
-      <c r="H11" s="95"/>
-      <c r="I11" s="95"/>
-      <c r="J11" s="82"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="E12" s="32"/>
-      <c r="F12" s="82"/>
-      <c r="G12" s="82"/>
-      <c r="H12" s="82"/>
-      <c r="I12" s="82"/>
-      <c r="J12" s="82"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="E13" s="10"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="82"/>
-      <c r="H13" s="82"/>
-      <c r="I13" s="82"/>
-      <c r="J13" s="82"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="F14" s="82"/>
-      <c r="G14" s="82"/>
-      <c r="H14" s="82"/>
-      <c r="I14" s="82"/>
-      <c r="J14" s="82"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="E15" s="10"/>
-      <c r="F15" s="82"/>
-      <c r="G15" s="82"/>
-      <c r="H15" s="82"/>
-      <c r="I15" s="82"/>
-      <c r="J15" s="82"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="F16" s="82"/>
-      <c r="G16" s="82"/>
-      <c r="H16" s="82"/>
-      <c r="I16" s="82"/>
-      <c r="J16" s="82"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="F17" s="82"/>
-      <c r="G17" s="82"/>
-      <c r="H17" s="82"/>
-      <c r="I17" s="82"/>
-      <c r="J17" s="82"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B21" s="45"/>
+        <v>12224.729000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.6">
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.6">
+      <c r="E12" s="24"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.6">
+      <c r="E13" s="7"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.6">
+      <c r="E15" s="7"/>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.6">
+      <c r="B21" s="36"/>
       <c r="C21" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B22" s="66"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.6">
+      <c r="B22" s="57"/>
       <c r="C22" s="1" t="s">
         <v>124</v>
       </c>
